--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem2/99/correct_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem2/99/correct_predictions_99.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F85"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,21 +647,21 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
+          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Go to Profile &gt; Settings to update firmware</t>
+          <t>RTH Altitude 98FT</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3-10</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -677,21 +677,21 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed Restart aircraft .</t>
+          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed</t>
+          <t>Data Recorder File Index is 1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -716,52 +716,52 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Gyroscope initialization failed</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Satellite positioning off Fly with Caution .</t>
+          <t>Gyroscope initialization failed Restart aircraft .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Satellite positioning off</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -776,52 +776,52 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Fly with Caution</t>
+          <t>Satellite positioning off</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate Fly with caution .</t>
+          <t>Satellite positioning off Fly with Caution .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate</t>
+          <t>Fly with Caution</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -836,32 +836,32 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Visual positioning inaccurate</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Strong Interference Now Fly with caution .</t>
+          <t>Visual positioning inaccurate Fly with caution .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1577,21 +1577,21 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
+          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
+          <t>Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>3-22</t>
+          <t>8-14</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1601,27 +1601,27 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
+          <t>Weak signal Adjust antennas .</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear</t>
+          <t>Weak signal</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0-7</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1637,21 +1637,21 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
+          <t>Weak signal Adjust antennas .</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Take care of your gimbal when landing</t>
+          <t>Adjust antennas</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>8-14</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1667,21 +1667,21 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Weak signal Adjust antennas .</t>
+          <t>Remote controller signal weak Adjust remote controller antennas .</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Weak signal</t>
+          <t>Remote controller signal weak</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1697,21 +1697,21 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Weak signal Adjust antennas .</t>
+          <t>Remote controller signal weak Adjust remote controller antennas .</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Adjust antennas</t>
+          <t>Adjust remote controller antennas</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1727,141 +1727,141 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Remote controller signal weak Adjust remote controller antennas .</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Remote controller signal weak</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>9-11</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Remote controller signal weak Adjust remote controller antennas .</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Adjust remote controller antennas</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>0-8</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
+          <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Battery overheating</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>9-11</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
+          <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing</t>
+          <t>Stop flying and wait for battery temperature to return to normal</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0-8</t>
+          <t>2-12</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
+          <t>IMU attitude restricted Ensure aircraft is level .</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Battery overheating</t>
+          <t>IMU attitude restricted</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1877,21 +1877,21 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
+          <t>IMU attitude restricted Ensure aircraft is level .</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Stop flying and wait for battery temperature to return to normal</t>
+          <t>Ensure aircraft is level</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2-12</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1907,21 +1907,21 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>IMU attitude restricted Ensure aircraft is level .</t>
+          <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>IMU attitude restricted</t>
+          <t>Aircraft processor chip overheated</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1937,21 +1937,21 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>IMU attitude restricted Ensure aircraft is level .</t>
+          <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Ensure aircraft is level</t>
+          <t>Power off aircraft and wait for temperature to return to normal</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>4-14</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1967,21 +1967,21 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
+          <t>Max Altitude Approached Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated</t>
+          <t>Max Altitude Approached</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1997,21 +1997,21 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
+          <t>Max Altitude Approached Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Power off aircraft and wait for temperature to return to normal</t>
+          <t>Wait for the GPS satellite signal recovery before ascend</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>4-14</t>
+          <t>3-11</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2027,21 +2027,21 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Max Altitude Approached Wait for the GPS satellite signal recovery before ascend .</t>
+          <t>Remote controller in high interference environment Manually adjust flight route or return to home .</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Wait for the GPS satellite signal recovery before ascend</t>
+          <t>Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>3-11</t>
+          <t>6-13</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2066,42 +2066,42 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Manually adjust flight route or return to home</t>
+          <t>Remote controller in high interference environment</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>6-13</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment Manually adjust flight route or return to home .</t>
+          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment</t>
+          <t>Unknown Error</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2816,52 +2816,52 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Cool down the monitor to prevent overheating</t>
+          <t>CrystalSky is too hot</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>4-10</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
+          <t>Aircraft takeoff altitude error Restart aircraft .</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2876,52 +2876,52 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Aircraft takeoff altitude error</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Aircraft takeoff altitude error Restart aircraft .</t>
+          <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Aircraft takeoff altitude error</t>
+          <t>Not suitable for shooting a 4K video</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>7-13</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2936,50 +2936,20 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Not suitable for shooting a 4K video</t>
+          <t>SD card write speed is too slow</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>7-13</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>45</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>SD card write speed is too slow</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>0-6</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
         <is>
           <t>Event</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem2/99/correct_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem2/99/correct_predictions_99.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,21 +647,21 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
+          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>RTH Altitude 98FT</t>
+          <t>Go to Profile &gt; Settings to update firmware</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-10</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -677,21 +677,21 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
+          <t>Gyroscope initialization failed Restart aircraft .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 1</t>
+          <t>Gyroscope initialization failed</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -716,52 +716,52 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed Restart aircraft .</t>
+          <t>Satellite positioning off Fly with Caution .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Satellite positioning off</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -776,52 +776,52 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Satellite positioning off</t>
+          <t>Fly with Caution</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Satellite positioning off Fly with Caution .</t>
+          <t>Visual positioning inaccurate Fly with caution .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Fly with Caution</t>
+          <t>Visual positioning inaccurate</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -836,32 +836,32 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate Fly with caution .</t>
+          <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1577,21 +1577,21 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
+          <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Take care of your gimbal when landing</t>
+          <t>Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>8-14</t>
+          <t>3-22</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1601,27 +1601,27 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Weak signal Adjust antennas .</t>
+          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Weak signal</t>
+          <t>Failed to lower or pack up landing gear</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-7</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1637,21 +1637,21 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Weak signal Adjust antennas .</t>
+          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Adjust antennas</t>
+          <t>Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>8-14</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1667,21 +1667,21 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Remote controller signal weak Adjust remote controller antennas .</t>
+          <t>Weak signal Adjust antennas .</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Remote controller signal weak</t>
+          <t>Weak signal</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1697,21 +1697,21 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Remote controller signal weak Adjust remote controller antennas .</t>
+          <t>Weak signal Adjust antennas .</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Adjust remote controller antennas</t>
+          <t>Adjust antennas</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1727,141 +1727,141 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
+          <t>Remote controller signal weak Adjust remote controller antennas .</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Remote controller signal weak</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>9-11</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
+          <t>Remote controller signal weak Adjust remote controller antennas .</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing</t>
+          <t>Adjust remote controller antennas</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0-8</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Battery overheating</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>9-11</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Stop flying and wait for battery temperature to return to normal</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2-12</t>
+          <t>0-8</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>IMU attitude restricted Ensure aircraft is level .</t>
+          <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>IMU attitude restricted</t>
+          <t>Battery overheating</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1877,21 +1877,21 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>IMU attitude restricted Ensure aircraft is level .</t>
+          <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Ensure aircraft is level</t>
+          <t>Stop flying and wait for battery temperature to return to normal</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>2-12</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1907,21 +1907,21 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
+          <t>IMU attitude restricted Ensure aircraft is level .</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated</t>
+          <t>IMU attitude restricted</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1937,21 +1937,21 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
+          <t>IMU attitude restricted Ensure aircraft is level .</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Power off aircraft and wait for temperature to return to normal</t>
+          <t>Ensure aircraft is level</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>4-14</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1967,21 +1967,21 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Max Altitude Approached Wait for the GPS satellite signal recovery before ascend .</t>
+          <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Max Altitude Approached</t>
+          <t>Aircraft processor chip overheated</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1997,21 +1997,21 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Max Altitude Approached Wait for the GPS satellite signal recovery before ascend .</t>
+          <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Wait for the GPS satellite signal recovery before ascend</t>
+          <t>Power off aircraft and wait for temperature to return to normal</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>3-11</t>
+          <t>4-14</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2027,21 +2027,21 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment Manually adjust flight route or return to home .</t>
+          <t>Max Altitude Approached Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Manually adjust flight route or return to home</t>
+          <t>Wait for the GPS satellite signal recovery before ascend</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>6-13</t>
+          <t>3-11</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2066,42 +2066,42 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment</t>
+          <t>Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>6-13</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
+          <t>Remote controller in high interference environment Manually adjust flight route or return to home .</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Unknown Error</t>
+          <t>Remote controller in high interference environment</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2816,52 +2816,52 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot</t>
+          <t>Cool down the monitor to prevent overheating</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-10</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Aircraft takeoff altitude error Restart aircraft .</t>
+          <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>CrystalSky is too hot</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2876,52 +2876,52 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Aircraft takeoff altitude error</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
+          <t>Aircraft takeoff altitude error Restart aircraft .</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Not suitable for shooting a 4K video</t>
+          <t>Aircraft takeoff altitude error</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>7-13</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2936,20 +2936,50 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>Not suitable for shooting a 4K video</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>7-13</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>45</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
           <t>SD card write speed is too slow</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>0-6</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
